--- a/describe_x_train_std.xlsx
+++ b/describe_x_train_std.xlsx
@@ -1017,205 +1017,205 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.483054158395074e-18</v>
+        <v>2.59322166335803e-17</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.889832495037045e-17</v>
+        <v>-5.996825096515444e-17</v>
       </c>
       <c r="D3" t="n">
+        <v>6.483054158395074e-17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.59322166335803e-17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.483054158395074e-17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.333899497022227e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.037288665343212e-16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.037288665343212e-16</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.296610831679015e-17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="L3" t="n">
+        <v>-3.176696537613587e-16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.111865996029636e-16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.724581237592612e-17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.944916247518522e-17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-2.512183486378091e-17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.620763539598769e-17</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2.59322166335803e-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-9.076275821753105e-17</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.333899497022227e-16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.333899497022227e-16</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1.231780290095064e-16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-1.166949748511113e-16</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-2.204238413854325e-16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-3.241527079197537e-16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.889832495037045e-17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.59322166335803e-17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-2.074577330686424e-16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-1.815255164350621e-16</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.463560580190128e-16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.555932998014818e-16</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-7.77966499007409e-17</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-2.463560580190128e-16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.685594081182719e-16</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-7.77966499007409e-17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-7.77966499007409e-17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-9.076275821753105e-17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.188030778458338e-16</v>
+      </c>
+      <c r="AM3" t="n">
         <v>5.18644332671606e-17</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.483054158395074e-18</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.620763539598769e-17</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-5.834748742555567e-17</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.807206866314829e-17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.483054158395074e-17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.426271914846916e-16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-2.269068955438276e-16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-1.944916247518522e-16</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="AN3" t="n">
         <v>2.59322166335803e-17</v>
       </c>
-      <c r="O3" t="n">
-        <v>-2.59322166335803e-17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.59322166335803e-17</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.944916247518522e-17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-1.037288665343212e-16</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.538137910876552e-17</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-1.037288665343212e-16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-3.630510328701242e-16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.483054158395074e-18</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.77966499007409e-17</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.431145309398153e-16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.713957443125698e-16</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4.562449363970534e-16</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.483054158395074e-17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.724581237592612e-17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3.727756141077168e-16</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-1.685594081182719e-16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-7.77966499007409e-17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.59322166335803e-17</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>-5.18644332671606e-17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-1.361441373262966e-16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>-1.555932998014818e-16</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.166949748511113e-16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-5.18644332671606e-17</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-2.204238413854325e-16</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-1.555932998014818e-16</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>-9.076275821753105e-17</v>
-      </c>
       <c r="AO3" t="n">
-        <v>-7.77966499007409e-17</v>
+        <v>3.889832495037045e-17</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-5.429557857655875e-17</v>
+        <v>-7.131359574234582e-17</v>
       </c>
       <c r="AR3" t="n">
-        <v>-6.483054158395074e-17</v>
+        <v>5.18644332671606e-17</v>
       </c>
       <c r="AS3" t="n">
-        <v>-6.483054158395074e-17</v>
+        <v>5.18644332671606e-17</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.889832495037045e-17</v>
+        <v>2.917374371277784e-17</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.889832495037045e-17</v>
+        <v>2.917374371277784e-17</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.889832495037045e-17</v>
+        <v>2.917374371277784e-17</v>
       </c>
       <c r="AW3" t="n">
+        <v>1.944916247518522e-17</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-2.917374371277784e-17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.188030778458338e-17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-2.917374371277784e-17</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-2.917374371277784e-17</v>
+      </c>
+      <c r="BB3" t="n">
         <v>-2.59322166335803e-17</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BC3" t="n">
         <v>-2.59322166335803e-17</v>
       </c>
-      <c r="AY3" t="n">
-        <v>-3.241527079197537e-17</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BD3" t="n">
         <v>-2.59322166335803e-17</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BE3" t="n">
         <v>-2.59322166335803e-17</v>
       </c>
-      <c r="BB3" t="n">
-        <v>-4.862290618796306e-17</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>-4.862290618796306e-17</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>-4.862290618796306e-17</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>-1.944916247518522e-17</v>
-      </c>
       <c r="BF3" t="n">
-        <v>-1.944916247518522e-17</v>
+        <v>-2.59322166335803e-17</v>
       </c>
       <c r="BG3" t="n">
-        <v>-1.944916247518522e-17</v>
+        <v>-2.59322166335803e-17</v>
       </c>
       <c r="BH3" t="n">
-        <v>-1.944916247518522e-17</v>
+        <v>-2.59322166335803e-17</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.944916247518522e-17</v>
+        <v>-2.59322166335803e-17</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-4.538137910876552e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BK3" t="n">
-        <v>-4.538137910876552e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BL3" t="n">
-        <v>-4.538137910876552e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BM3" t="n">
-        <v>-4.538137910876552e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BN3" t="n">
-        <v>-4.538137910876552e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BO3" t="n">
-        <v>5.834748742555567e-17</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-1.296610831679015e-17</v>
+        <v>1.296610831679015e-17</v>
       </c>
       <c r="BQ3" t="n">
         <v>-5.18644332671606e-17</v>
@@ -1227,7 +1227,7 @@
         <v>-5.18644332671606e-17</v>
       </c>
       <c r="BT3" t="n">
-        <v>-4.862290618796306e-17</v>
+        <v>-5.18644332671606e-17</v>
       </c>
     </row>
     <row r="4">
@@ -1249,88 +1249,88 @@
         <v>1.003669737103033</v>
       </c>
       <c r="F4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.003669737103033</v>
+      </c>
+      <c r="AG4" t="n">
         <v>1.003669737103032</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.003669737103032</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.003669737103032</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.003669737103033</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1.003669737103033</v>
       </c>
       <c r="AH4" t="n">
         <v>1.003669737103033</v>
@@ -1363,10 +1363,10 @@
         <v>1.003669737103033</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.003669737103032</v>
+        <v>1.003669737103033</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.003669737103032</v>
+        <v>1.003669737103033</v>
       </c>
       <c r="AT4" t="n">
         <v>1.003669737103033</v>
@@ -1378,7 +1378,7 @@
         <v>1.003669737103033</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.003669737103032</v>
+        <v>1.003669737103033</v>
       </c>
       <c r="AX4" t="n">
         <v>1.003669737103033</v>
@@ -1457,202 +1457,202 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.691395897545803</v>
+        <v>-1.339800541185515</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.068000468164692</v>
+        <v>-0.9747841430201125</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.02821863816685</v>
+        <v>-0.9534429348834441</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.14979732923028</v>
+        <v>-1.037187338795444</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2954684201426394</v>
+        <v>-0.3373738848983159</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.309109739450575</v>
+        <v>-2.5277879433297</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.01222642790948</v>
+        <v>-1.968352648230771</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.011163199896349</v>
+        <v>-1.966850912616638</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.367451802553399</v>
+        <v>-2.530011507522159</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.272300133097819</v>
+        <v>-2.40276154616708</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.867792934832785</v>
+        <v>-3.152492532799582</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.553619194300306</v>
+        <v>-2.839547529841802</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.464142227075609</v>
+        <v>-1.221418991565625</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.665588276679739</v>
+        <v>-0.149587091876018</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.18039102308594</v>
+        <v>-0.9977517658578521</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.8880571531660214</v>
+        <v>-0.7789854958396438</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.357222524054276</v>
+        <v>-3.429115600742044</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.096024695808743</v>
+        <v>-2.987689145778436</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.064294370711618</v>
+        <v>-2.908460416627505</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.081459643227366</v>
+        <v>-2.8775552920365</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.535768018052755</v>
+        <v>-1.57832763687048</v>
       </c>
       <c r="W5" t="n">
-        <v>-2.087426043736404</v>
+        <v>-1.909191397759574</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.853306843428499</v>
+        <v>-1.905475543683482</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.727675876610645</v>
+        <v>-2.685732715551239</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.656425267815447</v>
+        <v>-2.646132216364565</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1.024723749719517</v>
+        <v>-1.101665378824178</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.393726559297209</v>
+        <v>-1.229553002725082</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.678832101342053</v>
+        <v>-3.290497343692421</v>
       </c>
       <c r="AD5" t="n">
-        <v>-3.753723963108274</v>
+        <v>-3.320474797346302</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.234230657303423</v>
+        <v>-3.412111478493821</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.420103426556471</v>
+        <v>-3.40446156613893</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.775321681776635</v>
+        <v>-3.783617757232415</v>
       </c>
       <c r="AH5" t="n">
-        <v>-3.547338284271478</v>
+        <v>-3.503849890675187</v>
       </c>
       <c r="AI5" t="n">
-        <v>-3.761681466871313</v>
+        <v>-3.704161518510536</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.49161960892914</v>
+        <v>-3.694953140460852</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.8065992869067976</v>
+        <v>-0.8189821166039423</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1.969818279200151</v>
+        <v>-1.96248139306944</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.7943251103624895</v>
+        <v>-0.8568414177605289</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.7226494462892934</v>
+        <v>-0.7580980435789034</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.7462025072446365</v>
+        <v>-0.7821538888750428</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.4254814716983816</v>
+        <v>-0.3889222341312987</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AT5" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AW5" t="n">
         <v>-0.3098386676965934</v>
       </c>
-      <c r="AU5" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>-0.3506434366591383</v>
-      </c>
       <c r="AX5" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-0.2651650429449554</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BB5" t="n">
         <v>-0.2140129125019265</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BC5" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BE5" t="n">
         <v>-0.2490291225458761</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
       <c r="BF5" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.2806067666331568</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BP5" t="n">
         <v>-0.2651650429449554</v>
@@ -1667,7 +1667,7 @@
         <v>-0.2320477404461286</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.2490291225458762</v>
+        <v>-0.2320477404461286</v>
       </c>
     </row>
     <row r="6">
@@ -1677,202 +1677,202 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9642372010067602</v>
+        <v>-0.8916610236756681</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.068000468164692</v>
+        <v>-0.9747841430201125</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.02821863816685</v>
+        <v>-0.9534429348834441</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.14979732923028</v>
+        <v>-1.037187338795444</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2954684201426394</v>
+        <v>-0.3373738848983159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1727752473141389</v>
+        <v>0.1606010317416827</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3692045222012283</v>
+        <v>0.400503568420771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3610529826919424</v>
+        <v>0.3790689631242985</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.446659833555423</v>
+        <v>-0.440511217079824</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.415511060278095</v>
+        <v>-0.4459883526803485</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1377643033031181</v>
+        <v>-0.1802053831722975</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1759716811741703</v>
+        <v>-0.1951304788589726</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6630546065251034</v>
+        <v>-0.6253517977093764</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6588000346898317</v>
+        <v>-0.1078489420042981</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5687935385993648</v>
+        <v>-0.5282503215704722</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.7927093240251555</v>
+        <v>-0.732765914665962</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2183492037927095</v>
+        <v>-0.2324965376930817</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.2487652064370328</v>
+        <v>-0.2413081360532009</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3654478592202652</v>
+        <v>-0.3948914010793796</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4634382122081034</v>
+        <v>-0.4230959965854509</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.6908564703402371</v>
+        <v>-0.6567514056515795</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.6458645863403087</v>
+        <v>-0.6039446004452702</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.6511957424153566</v>
+        <v>-0.5969534911289106</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3838114339988232</v>
+        <v>-0.3303438959685796</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.4216548044151499</v>
+        <v>-0.3080866769222831</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.7040831245693673</v>
+        <v>-0.7544760596350928</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.80561401733504</v>
+        <v>-0.7603363972283236</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2248194492407254</v>
+        <v>-0.1486694305729815</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.2653123051577883</v>
+        <v>-0.1635286956288572</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.069304942656502</v>
+        <v>-0.08635738171602031</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.09862126905845883</v>
+        <v>-0.07691411386045152</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.1620729645923266</v>
+        <v>-0.1510921885257441</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1197621434856368</v>
+        <v>-0.1883616782485681</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.1400601409191392</v>
+        <v>-0.2112501160999126</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.1515622150739635</v>
+        <v>-0.1707893200053237</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.8065992869067976</v>
+        <v>-0.8189821166039423</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.7000946616628839</v>
+        <v>-0.6965707226396418</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.7943251103624895</v>
+        <v>-0.8568414177605289</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.7226494462892934</v>
+        <v>-0.7580980435789034</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.7462025072446365</v>
+        <v>-0.7821538888750428</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.4254814716983816</v>
+        <v>-0.3889222341312987</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AT6" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AW6" t="n">
         <v>-0.3098386676965934</v>
       </c>
-      <c r="AU6" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>-0.3506434366591383</v>
-      </c>
       <c r="AX6" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-0.2651650429449554</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BB6" t="n">
         <v>-0.2140129125019265</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BC6" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BE6" t="n">
         <v>-0.2490291225458761</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
       <c r="BF6" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.2806067666331568</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BP6" t="n">
         <v>-0.2651650429449554</v>
@@ -1887,7 +1887,7 @@
         <v>-0.2320477404461286</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.2490291225458762</v>
+        <v>-0.2320477404461286</v>
       </c>
     </row>
     <row r="7">
@@ -1897,202 +1897,202 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09620256477934422</v>
+        <v>-0.2326323214553049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9363291775690445</v>
+        <v>-0.9747841430201125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2408440053363792</v>
+        <v>0.2905730849168592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8697184926229041</v>
+        <v>0.9641459769084411</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2954684201426394</v>
+        <v>-0.3373738848983159</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3573782628586217</v>
+        <v>0.3238635201063416</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4552803396751093</v>
+        <v>0.4718546592837692</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4462823066172703</v>
+        <v>0.4638612477896336</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1257616141592058</v>
+        <v>0.06102291472958187</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1299385346894247</v>
+        <v>0.07235106910960616</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1944440000516967</v>
+        <v>0.1878004630261924</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2556007573648352</v>
+        <v>0.2423135887007831</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2746484874703127</v>
+        <v>-0.2814668781769256</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1257944948128221</v>
+        <v>-0.09161743927640703</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2450066350476488</v>
+        <v>-0.2264279645285852</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2206223491799599</v>
+        <v>-0.4092288464501896</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1976460555190643</v>
+        <v>0.22416332845677</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2401581402227558</v>
+        <v>0.2580338657150237</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2128763932421676</v>
+        <v>0.2335008528076518</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.01371673939497848</v>
+        <v>0.04085667511566211</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.121834407595072</v>
+        <v>-0.1070392677315333</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1256753486040805</v>
+        <v>0.1506512042520614</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0501401919087857</v>
+        <v>-0.02447509313628545</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1468748548944196</v>
+        <v>0.174382279656276</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1264964413245457</v>
+        <v>0.1020967510500473</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.3300023952275261</v>
+        <v>-0.2088928437665301</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.1194827183791755</v>
+        <v>-0.1034331495328623</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1086714275138858</v>
+        <v>0.1546794713833784</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.12499948873877</v>
+        <v>0.250140103906532</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2471876288081901</v>
+        <v>0.1862454131018322</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2391565774667627</v>
+        <v>0.2558406313673964</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1875962661029291</v>
+        <v>0.1948626275415579</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2173764933129705</v>
+        <v>0.2537034167416478</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2411631565495108</v>
+        <v>0.2253638092014153</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2381111475424738</v>
+        <v>0.2336229216862944</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.8065992869067976</v>
+        <v>-0.8189821166039423</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.08127371836004943</v>
+        <v>0.08245122839408028</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.7943251103624895</v>
+        <v>-0.8568414177605289</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.7226494462892934</v>
+        <v>-0.7580980435789034</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.7462025072446365</v>
+        <v>-0.7821538888750428</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.4254814716983816</v>
+        <v>-0.3889222341312987</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AT7" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AW7" t="n">
         <v>-0.3098386676965934</v>
       </c>
-      <c r="AU7" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>-0.3506434366591383</v>
-      </c>
       <c r="AX7" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.2651650429449554</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BB7" t="n">
         <v>-0.2140129125019265</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="BC7" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BE7" t="n">
         <v>-0.2490291225458761</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
       <c r="BF7" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.2806067666331568</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BP7" t="n">
         <v>-0.2651650429449554</v>
@@ -2107,7 +2107,7 @@
         <v>-0.2320477404461286</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.2490291225458762</v>
+        <v>-0.2320477404461286</v>
       </c>
     </row>
     <row r="8">
@@ -2117,202 +2117,202 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9445543774082278</v>
+        <v>1.085425082985422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9363291775690445</v>
+        <v>1.033417775682976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2408440053363792</v>
+        <v>0.2905730849168592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8697184926229041</v>
+        <v>0.9641459769084411</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2954684201426394</v>
+        <v>-0.3373738848983159</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5060862476027884</v>
+        <v>0.4871260084710004</v>
       </c>
       <c r="H8" t="n">
-        <v>0.51266421799103</v>
+        <v>0.5432057501467674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5315116305425981</v>
+        <v>0.5345214850107461</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5069217916204379</v>
+        <v>0.6290101838484763</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6146253431355875</v>
+        <v>0.6610265019321692</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6187496548316085</v>
+        <v>0.6071472630272862</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6098371629891643</v>
+        <v>0.5234611110820138</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4050622208755709</v>
+        <v>0.3146003156793226</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4664338828282995</v>
+        <v>-0.0707483643405471</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3306145268220685</v>
+        <v>0.1424660274114989</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3514646256652358</v>
+        <v>0.2378452899813552</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6136413148308382</v>
+        <v>0.6047132169149798</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6140406994331824</v>
+        <v>0.5909285335605067</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6259651450010481</v>
+        <v>0.6000630009084201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5644965827933252</v>
+        <v>0.5347417772491047</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5851323976337698</v>
+        <v>0.5720169026402884</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6941784585631041</v>
+        <v>0.6809077156609971</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7226455158853771</v>
+        <v>0.7115685614256611</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6775611437876624</v>
+        <v>0.6791084552811316</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6746476870642413</v>
+        <v>0.6353352074140765</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3647189592644646</v>
+        <v>0.5350842687815103</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6646673375703839</v>
+        <v>0.5534700981625992</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5136246350016275</v>
+        <v>0.5230317094732436</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4665223083982579</v>
+        <v>0.5114046088762518</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5109314383621002</v>
+        <v>0.5133687668832553</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5769344239919844</v>
+        <v>0.5331362523906029</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.4789872916823088</v>
+        <v>0.5408174436088599</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.4983253573118099</v>
+        <v>0.5299941011105326</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5588492377733857</v>
+        <v>0.5372308987023638</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5164492636970718</v>
+        <v>0.5224888086088787</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.239772978023411</v>
+        <v>1.221027882936786</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6673000033772495</v>
+        <v>0.6667176916693719</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.258930363593379</v>
+        <v>1.16707710350141</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.383796812043327</v>
+        <v>1.319090595827292</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.34011878852098</v>
+        <v>1.278520779891897</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.4254814716983816</v>
+        <v>-0.3889222341312987</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.4954336943068623</v>
+        <v>-0.5068340299791976</v>
       </c>
       <c r="AT8" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.2806067666331568</v>
+      </c>
+      <c r="AW8" t="n">
         <v>-0.3098386676965934</v>
       </c>
-      <c r="AU8" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>-0.3098386676965934</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>-0.3506434366591383</v>
-      </c>
       <c r="AX8" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.2651650429449554</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.2320477404461286</v>
+      </c>
+      <c r="BB8" t="n">
         <v>-0.2140129125019265</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BC8" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.2140129125019265</v>
+      </c>
+      <c r="BE8" t="n">
         <v>-0.2490291225458761</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>-0.2320477404461286</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>-0.2140129125019265</v>
-      </c>
       <c r="BF8" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.2140129125019265</v>
+        <v>-0.2490291225458761</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.2320477404461286</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.2806067666331568</v>
+        <v>-0.2651650429449554</v>
       </c>
       <c r="BP8" t="n">
         <v>-0.2651650429449554</v>
@@ -2327,7 +2327,7 @@
         <v>-0.2320477404461286</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0.2490291225458762</v>
+        <v>-0.2320477404461286</v>
       </c>
     </row>
     <row r="9">
@@ -2337,202 +2337,202 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.641414794924811</v>
+        <v>1.559925748584083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9363291775690445</v>
+        <v>1.033417775682976</v>
       </c>
       <c r="D9" t="n">
-        <v>2.778969292342838</v>
+        <v>2.778605124517466</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8697184926229041</v>
+        <v>0.9641459769084411</v>
       </c>
       <c r="F9" t="n">
-        <v>3.384456448906597</v>
+        <v>2.964070560178061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9727216480068979</v>
+        <v>0.8571876487642272</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7278537616757325</v>
+        <v>0.7144483682179632</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7161751657141417</v>
+        <v>0.7182381017856387</v>
       </c>
       <c r="J9" t="n">
-        <v>3.229557908434081</v>
+        <v>3.416819849493542</v>
       </c>
       <c r="K9" t="n">
-        <v>2.998456363635165</v>
+        <v>3.142045940017745</v>
       </c>
       <c r="L9" t="n">
-        <v>1.300559504196092</v>
+        <v>1.370851089460843</v>
       </c>
       <c r="M9" t="n">
-        <v>1.27761975496666</v>
+        <v>1.36565045449285</v>
       </c>
       <c r="N9" t="n">
-        <v>4.968834119769361</v>
+        <v>4.739252946996857</v>
       </c>
       <c r="O9" t="n">
-        <v>4.138249824203254</v>
+        <v>11.65303417740477</v>
       </c>
       <c r="P9" t="n">
-        <v>6.338660403837242</v>
+        <v>5.944162446105549</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.593290816454678</v>
+        <v>3.611874715660124</v>
       </c>
       <c r="R9" t="n">
-        <v>1.71035608938006</v>
+        <v>1.670252904597967</v>
       </c>
       <c r="S9" t="n">
-        <v>1.764448573926803</v>
+        <v>1.950248427262896</v>
       </c>
       <c r="T9" t="n">
-        <v>1.947849150629466</v>
+        <v>1.856847508682483</v>
       </c>
       <c r="U9" t="n">
-        <v>2.604304691624284</v>
+        <v>2.420484894485887</v>
       </c>
       <c r="V9" t="n">
-        <v>3.223325597634081</v>
+        <v>2.884041482715776</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72454670841676</v>
+        <v>2.924300648544956</v>
       </c>
       <c r="X9" t="n">
-        <v>2.439947088761294</v>
+        <v>2.183655870549554</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.694709864166378</v>
+        <v>1.520318747989224</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.602288256777572</v>
+        <v>1.49672040615597</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.090164273040735</v>
+        <v>3.61018966731341</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.997305075356012</v>
+        <v>4.776419547633423</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.728484257464853</v>
+        <v>1.62808842374284</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.93019153551035</v>
+        <v>1.75241100748242</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.143916581291484</v>
+        <v>1.113094915482531</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.13989750153402</v>
+        <v>1.198645742846299</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.353160368420448</v>
+        <v>1.290386211754681</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.397361722108096</v>
+        <v>1.358866154217187</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.321295832710686</v>
+        <v>1.28571191350464</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.240128365699027</v>
+        <v>1.215766937223081</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.239772978023411</v>
+        <v>1.221027882936786</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.327707810925983</v>
+        <v>2.322139337616032</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.258930363593379</v>
+        <v>1.16707710350141</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.383796812043327</v>
+        <v>1.319090595827292</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.34011878852098</v>
+        <v>1.278520779891897</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.350278605572012</v>
+        <v>2.571208103423586</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.018433569398328</v>
+        <v>1.973032473847591</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.018433569398328</v>
+        <v>1.973032473847591</v>
       </c>
       <c r="AT9" t="n">
+        <v>3.563705936241092</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.563705936241092</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3.563705936241092</v>
+      </c>
+      <c r="AW9" t="n">
         <v>3.227486121839514</v>
       </c>
-      <c r="AU9" t="n">
-        <v>3.227486121839514</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>3.227486121839514</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>2.851899951494325</v>
-      </c>
       <c r="AX9" t="n">
+        <v>4.309458036856673</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3.771236166328253</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>4.309458036856673</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>4.309458036856673</v>
+      </c>
+      <c r="BB9" t="n">
         <v>4.672615256292062</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BC9" t="n">
+        <v>4.672615256292062</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4.672615256292062</v>
+      </c>
+      <c r="BE9" t="n">
         <v>4.015594601052253</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>4.672615256292062</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>4.672615256292062</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>4.309458036856673</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>4.309458036856673</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>4.309458036856673</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>4.672615256292062</v>
-      </c>
       <c r="BF9" t="n">
-        <v>4.672615256292062</v>
+        <v>4.015594601052253</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.672615256292062</v>
+        <v>4.015594601052253</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.672615256292062</v>
+        <v>4.015594601052253</v>
       </c>
       <c r="BI9" t="n">
-        <v>4.672615256292062</v>
+        <v>4.015594601052253</v>
       </c>
       <c r="BJ9" t="n">
-        <v>4.309458036856673</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.309458036856673</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.309458036856673</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.309458036856673</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BN9" t="n">
-        <v>4.309458036856673</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.563705936241092</v>
+        <v>3.771236166328253</v>
       </c>
       <c r="BP9" t="n">
         <v>3.771236166328253</v>
@@ -2547,7 +2547,7 @@
         <v>4.309458036856673</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.015594601052253</v>
+        <v>4.309458036856673</v>
       </c>
     </row>
   </sheetData>
